--- a/MAT2034_MAT2404_GTS_HK1_Python/MAT2034 CLCMTKHTT 2.xlsx
+++ b/MAT2034_MAT2404_GTS_HK1_Python/MAT2034 CLCMTKHTT 2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Teaching-VNU\MAT2034_MAT2404_GTS_HK1_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5EC8CB-48EB-4897-92CA-7C88326DC841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87568902-82B0-499F-9B04-BCA0AD028DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAT2034 CLCMTKHTT 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="263">
   <si>
     <t>ĐẠI HỌC QUỐC GIA HÀ NỘI</t>
   </si>
@@ -524,13 +525,610 @@
   </si>
   <si>
     <t xml:space="preserve">               TL. HIỆU TRƯỞNG</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>STT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mã</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Họ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ngày</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sinh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lớp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thường</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xuyên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ký</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nộp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Giữa</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kỳ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ghi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chú</t>
+    </r>
+  </si>
+  <si>
+    <t>Lương Xuân Anh</t>
+  </si>
+  <si>
+    <t>25/08/2001</t>
+  </si>
+  <si>
+    <t>64CLCMTTT</t>
+  </si>
+  <si>
+    <t>02/12/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Sơn Bá</t>
+  </si>
+  <si>
+    <t>18/01/2001</t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng Quốc Bảo</t>
+  </si>
+  <si>
+    <t>10/01/2001</t>
+  </si>
+  <si>
+    <t>Vũ Thị Thùy Dung</t>
+  </si>
+  <si>
+    <t>23/08/2001</t>
+  </si>
+  <si>
+    <t>Bùi Tiến Dũng</t>
+  </si>
+  <si>
+    <t>29/08/2000</t>
+  </si>
+  <si>
+    <t>Đỗ Năng Dũng</t>
+  </si>
+  <si>
+    <t>22/11/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng Dương</t>
+  </si>
+  <si>
+    <t>15/08/2001</t>
+  </si>
+  <si>
+    <t>Phạm Đăng Dương</t>
+  </si>
+  <si>
+    <t>04/01/2001</t>
+  </si>
+  <si>
+    <t>Vũ Thái Dương</t>
+  </si>
+  <si>
+    <t>26/04/2001</t>
+  </si>
+  <si>
+    <t>Dương Minh Đông</t>
+  </si>
+  <si>
+    <t>Đào Minh Đức</t>
+  </si>
+  <si>
+    <t>02/10/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Đức</t>
+  </si>
+  <si>
+    <t>26/03/2001</t>
+  </si>
+  <si>
+    <t>Hoàng Đức Hải</t>
+  </si>
+  <si>
+    <t>06/05/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Hiệp</t>
+  </si>
+  <si>
+    <t>17/08/2001</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoa</t>
+  </si>
+  <si>
+    <t>02/03/2001</t>
+  </si>
+  <si>
+    <t>Phan Lê Hoàng</t>
+  </si>
+  <si>
+    <t>16/04/2001</t>
+  </si>
+  <si>
+    <t>Trần Tuấn Huy</t>
+  </si>
+  <si>
+    <t>16/11/2001</t>
+  </si>
+  <si>
+    <t>Phạm Thị Huyền</t>
+  </si>
+  <si>
+    <t>02/02/2001</t>
+  </si>
+  <si>
+    <t>Lương Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>24/12/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Thu Hường</t>
+  </si>
+  <si>
+    <t>08/02/2001</t>
+  </si>
+  <si>
+    <t>Trần Quang Khải</t>
+  </si>
+  <si>
+    <t>06/07/2001</t>
+  </si>
+  <si>
+    <t>Trần Văn Lợi</t>
+  </si>
+  <si>
+    <t>26/09/2001</t>
+  </si>
+  <si>
+    <t>Đỗ Quang Nam</t>
+  </si>
+  <si>
+    <t>28/05/2001</t>
+  </si>
+  <si>
+    <t>Trần Thế Nam</t>
+  </si>
+  <si>
+    <t>02/01/2001</t>
+  </si>
+  <si>
+    <t>Kiều Thanh Nghị</t>
+  </si>
+  <si>
+    <t>22/02/2001</t>
+  </si>
+  <si>
+    <t>Vũ Tất Nhiên</t>
+  </si>
+  <si>
+    <t>18/04/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Phong</t>
+  </si>
+  <si>
+    <t>19/08/2001</t>
+  </si>
+  <si>
+    <t>Lê Đình Phúc</t>
+  </si>
+  <si>
+    <t>09/09/2001</t>
+  </si>
+  <si>
+    <t>Phạm Duy Phương</t>
+  </si>
+  <si>
+    <t>02/05/2001</t>
+  </si>
+  <si>
+    <t>Đỗ Vũ Quang</t>
+  </si>
+  <si>
+    <t>23/03/2001</t>
+  </si>
+  <si>
+    <t>Đỗ Như Quyền</t>
+  </si>
+  <si>
+    <t>16/10/2001</t>
+  </si>
+  <si>
+    <t>Trần Hữu Sơn</t>
+  </si>
+  <si>
+    <t>14/01/2001</t>
+  </si>
+  <si>
+    <t>Vũ Công Tài</t>
+  </si>
+  <si>
+    <t>01/10/2001</t>
+  </si>
+  <si>
+    <t>Trần Đăng Thành</t>
+  </si>
+  <si>
+    <t>10/11/2001</t>
+  </si>
+  <si>
+    <t>Ngô Phương Thảo</t>
+  </si>
+  <si>
+    <t>14/10/2001</t>
+  </si>
+  <si>
+    <t>Đặng Thị Phương Thúy</t>
+  </si>
+  <si>
+    <t>14/11/2001</t>
+  </si>
+  <si>
+    <t>Phạm Vũ Thư</t>
+  </si>
+  <si>
+    <t>04/09/2001</t>
+  </si>
+  <si>
+    <t>Hoàng Đức Trung</t>
+  </si>
+  <si>
+    <t>23/11/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Trường</t>
+  </si>
+  <si>
+    <t>06/12/2001</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Trường</t>
+  </si>
+  <si>
+    <t>14/12/2001</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Tuấn</t>
+  </si>
+  <si>
+    <t>08/08/2001</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Tùng</t>
+  </si>
+  <si>
+    <t>12/10/2001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,6 +1352,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -936,7 +1553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1101,6 +1718,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6CFDE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6CFDE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6CFDE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6CFDE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6CFDE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6CFDE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6CFDE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6CFDE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6CFDE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6CFDE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6CFDE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6CFDE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1146,7 +1874,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1201,16 +1929,22 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,14 +1962,71 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1663,106 +2454,6 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Control 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1774,13 +2465,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Control 3" hidden="1">
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
+                  <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1824,13 +2515,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Control 4" hidden="1">
+            <xdr:cNvPr id="1026" name="Control 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1874,13 +2565,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Control 5" hidden="1">
+            <xdr:cNvPr id="1027" name="Control 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1924,13 +2615,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Control 6" hidden="1">
+            <xdr:cNvPr id="1028" name="Control 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1974,13 +2665,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Control 7" hidden="1">
+            <xdr:cNvPr id="1029" name="Control 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
+                  <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2024,13 +2715,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Control 8" hidden="1">
+            <xdr:cNvPr id="1030" name="Control 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
+                  <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2074,13 +2765,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Control 9" hidden="1">
+            <xdr:cNvPr id="1031" name="Control 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
+                  <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2124,13 +2815,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Control 10" hidden="1">
+            <xdr:cNvPr id="1032" name="Control 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1034"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2174,13 +2865,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Control 11" hidden="1">
+            <xdr:cNvPr id="1033" name="Control 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
+                  <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2224,13 +2915,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Control 12" hidden="1">
+            <xdr:cNvPr id="1034" name="Control 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
+                  <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2274,13 +2965,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Control 13" hidden="1">
+            <xdr:cNvPr id="1035" name="Control 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
+                  <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2324,13 +3015,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Control 14" hidden="1">
+            <xdr:cNvPr id="1036" name="Control 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
+                  <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2374,13 +3065,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Control 15" hidden="1">
+            <xdr:cNvPr id="1037" name="Control 13" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
+                  <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2424,13 +3115,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Control 16" hidden="1">
+            <xdr:cNvPr id="1038" name="Control 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
+                  <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2474,13 +3165,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Control 17" hidden="1">
+            <xdr:cNvPr id="1039" name="Control 15" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
+                  <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2524,13 +3215,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Control 18" hidden="1">
+            <xdr:cNvPr id="1040" name="Control 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
+                  <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2574,13 +3265,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Control 19" hidden="1">
+            <xdr:cNvPr id="1041" name="Control 17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
+                  <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2624,13 +3315,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Control 20" hidden="1">
+            <xdr:cNvPr id="1042" name="Control 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
+                  <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2674,13 +3365,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="Control 21" hidden="1">
+            <xdr:cNvPr id="1043" name="Control 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
+                  <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2724,13 +3415,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Control 22" hidden="1">
+            <xdr:cNvPr id="1044" name="Control 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
+                  <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2774,13 +3465,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1047" name="Control 23" hidden="1">
+            <xdr:cNvPr id="1045" name="Control 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
+                  <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2824,13 +3515,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1048" name="Control 24" hidden="1">
+            <xdr:cNvPr id="1046" name="Control 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
+                  <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2874,13 +3565,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1049" name="Control 25" hidden="1">
+            <xdr:cNvPr id="1047" name="Control 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
+                  <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2924,13 +3615,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1050" name="Control 26" hidden="1">
+            <xdr:cNvPr id="1048" name="Control 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
+                  <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2974,13 +3665,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1051" name="Control 27" hidden="1">
+            <xdr:cNvPr id="1049" name="Control 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
+                  <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3024,13 +3715,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1052" name="Control 28" hidden="1">
+            <xdr:cNvPr id="1050" name="Control 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
+                  <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3074,13 +3765,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Control 29" hidden="1">
+            <xdr:cNvPr id="1051" name="Control 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
+                  <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3124,13 +3815,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Control 30" hidden="1">
+            <xdr:cNvPr id="1052" name="Control 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+                  <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3174,13 +3865,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1055" name="Control 31" hidden="1">
+            <xdr:cNvPr id="1053" name="Control 29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1055"/>
+                  <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3224,13 +3915,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1056" name="Control 32" hidden="1">
+            <xdr:cNvPr id="1054" name="Control 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1056"/>
+                  <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3274,13 +3965,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1057" name="Control 33" hidden="1">
+            <xdr:cNvPr id="1055" name="Control 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
+                  <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3324,13 +4015,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Control 34" hidden="1">
+            <xdr:cNvPr id="1056" name="Control 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
+                  <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3374,13 +4065,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Control 35" hidden="1">
+            <xdr:cNvPr id="1057" name="Control 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3424,13 +4115,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Control 36" hidden="1">
+            <xdr:cNvPr id="1058" name="Control 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3474,13 +4165,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Control 37" hidden="1">
+            <xdr:cNvPr id="1059" name="Control 35" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
+                  <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3524,13 +4215,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Control 38" hidden="1">
+            <xdr:cNvPr id="1060" name="Control 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3574,13 +4265,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Control 39" hidden="1">
+            <xdr:cNvPr id="1061" name="Control 37" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
+                  <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3624,13 +4315,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Control 40" hidden="1">
+            <xdr:cNvPr id="1062" name="Control 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3674,13 +4365,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1065" name="Control 41" hidden="1">
+            <xdr:cNvPr id="1063" name="Control 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1065"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3724,13 +4415,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Control 42" hidden="1">
+            <xdr:cNvPr id="1064" name="Control 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3774,13 +4465,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Control 43" hidden="1">
+            <xdr:cNvPr id="1065" name="Control 41" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
+                  <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3824,13 +4515,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Control 44" hidden="1">
+            <xdr:cNvPr id="1066" name="Control 42" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
+                  <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3874,13 +4565,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1069" name="Control 45" hidden="1">
+            <xdr:cNvPr id="1067" name="Control 43" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1069"/>
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3924,13 +4615,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1070" name="Control 46" hidden="1">
+            <xdr:cNvPr id="1068" name="Control 44" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1070"/>
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3974,13 +4665,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1071" name="Control 47" hidden="1">
+            <xdr:cNvPr id="1069" name="Control 45" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1071"/>
+                  <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4024,13 +4715,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1072" name="Control 48" hidden="1">
+            <xdr:cNvPr id="1070" name="Control 46" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1072"/>
+                  <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4074,13 +4765,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1073" name="Control 49" hidden="1">
+            <xdr:cNvPr id="1071" name="Control 47" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1073"/>
+                  <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4124,13 +4815,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1074" name="Control 50" hidden="1">
+            <xdr:cNvPr id="1072" name="Control 48" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1074"/>
+                  <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4174,13 +4865,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1075" name="Control 51" hidden="1">
+            <xdr:cNvPr id="1073" name="Control 49" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1075"/>
+                  <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4224,13 +4915,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1076" name="Control 52" hidden="1">
+            <xdr:cNvPr id="1074" name="Control 50" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1076"/>
+                  <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4274,13 +4965,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1077" name="Control 53" hidden="1">
+            <xdr:cNvPr id="1075" name="Control 51" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1077"/>
+                  <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4324,13 +5015,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1078" name="Control 54" hidden="1">
+            <xdr:cNvPr id="1076" name="Control 52" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1078"/>
+                  <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4374,13 +5065,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1079" name="Control 55" hidden="1">
+            <xdr:cNvPr id="1077" name="Control 53" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1079"/>
+                  <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4424,13 +5115,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1080" name="Control 56" hidden="1">
+            <xdr:cNvPr id="1078" name="Control 54" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1080"/>
+                  <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4474,13 +5165,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1081" name="Control 57" hidden="1">
+            <xdr:cNvPr id="1079" name="Control 55" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1081"/>
+                  <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4524,13 +5215,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1082" name="Control 58" hidden="1">
+            <xdr:cNvPr id="1080" name="Control 56" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1082"/>
+                  <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4574,13 +5265,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1083" name="Control 59" hidden="1">
+            <xdr:cNvPr id="1081" name="Control 57" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1083"/>
+                  <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4624,13 +5315,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1084" name="Control 60" hidden="1">
+            <xdr:cNvPr id="1082" name="Control 58" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1084"/>
+                  <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4674,13 +5365,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1085" name="Control 61" hidden="1">
+            <xdr:cNvPr id="1083" name="Control 59" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1085"/>
+                  <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4724,13 +5415,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1086" name="Control 62" hidden="1">
+            <xdr:cNvPr id="1084" name="Control 60" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1086"/>
+                  <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4774,13 +5465,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1087" name="Control 63" hidden="1">
+            <xdr:cNvPr id="1085" name="Control 61" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1087"/>
+                  <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4824,13 +5515,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1088" name="Control 64" hidden="1">
+            <xdr:cNvPr id="1086" name="Control 62" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1088"/>
+                  <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4874,13 +5565,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1089" name="Control 65" hidden="1">
+            <xdr:cNvPr id="1087" name="Control 63" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1089"/>
+                  <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4924,13 +5615,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1090" name="Control 66" hidden="1">
+            <xdr:cNvPr id="1088" name="Control 64" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1090"/>
+                  <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4974,13 +5665,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1091" name="Control 67" hidden="1">
+            <xdr:cNvPr id="1089" name="Control 65" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1091"/>
+                  <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5024,13 +5715,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1092" name="Control 68" hidden="1">
+            <xdr:cNvPr id="1090" name="Control 66" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1092"/>
+                  <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5074,13 +5765,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1093" name="Control 69" hidden="1">
+            <xdr:cNvPr id="1091" name="Control 67" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1093"/>
+                  <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5124,13 +5815,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1094" name="Control 70" hidden="1">
+            <xdr:cNvPr id="1092" name="Control 68" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1094"/>
+                  <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5174,13 +5865,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1095" name="Control 71" hidden="1">
+            <xdr:cNvPr id="1093" name="Control 69" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1095"/>
+                  <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5224,13 +5915,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1096" name="Control 72" hidden="1">
+            <xdr:cNvPr id="1094" name="Control 70" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1096"/>
+                  <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5274,13 +5965,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1097" name="Control 73" hidden="1">
+            <xdr:cNvPr id="1095" name="Control 71" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1097"/>
+                  <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5324,13 +6015,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1098" name="Control 74" hidden="1">
+            <xdr:cNvPr id="1096" name="Control 72" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1098"/>
+                  <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5374,13 +6065,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1099" name="Control 75" hidden="1">
+            <xdr:cNvPr id="1097" name="Control 73" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1099"/>
+                  <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5424,13 +6115,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1100" name="Control 76" hidden="1">
+            <xdr:cNvPr id="1098" name="Control 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1100"/>
+                  <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5474,13 +6165,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1101" name="Control 77" hidden="1">
+            <xdr:cNvPr id="1099" name="Control 75" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1101"/>
+                  <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5524,13 +6215,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1102" name="Control 78" hidden="1">
+            <xdr:cNvPr id="1100" name="Control 76" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1102"/>
+                  <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5574,13 +6265,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1103" name="Control 79" hidden="1">
+            <xdr:cNvPr id="1101" name="Control 77" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1103"/>
+                  <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5624,13 +6315,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1104" name="Control 80" hidden="1">
+            <xdr:cNvPr id="1102" name="Control 78" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1104"/>
+                  <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5674,13 +6365,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1105" name="Control 81" hidden="1">
+            <xdr:cNvPr id="1103" name="Control 79" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1105"/>
+                  <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5724,13 +6415,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1106" name="Control 82" hidden="1">
+            <xdr:cNvPr id="1104" name="Control 80" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1106"/>
+                  <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5774,13 +6465,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1107" name="Control 83" hidden="1">
+            <xdr:cNvPr id="1105" name="Control 81" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1107"/>
+                  <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5824,13 +6515,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1108" name="Control 84" hidden="1">
+            <xdr:cNvPr id="1106" name="Control 82" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1108"/>
+                  <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5874,13 +6565,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1109" name="Control 85" hidden="1">
+            <xdr:cNvPr id="1107" name="Control 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1109"/>
+                  <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5924,13 +6615,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1110" name="Control 86" hidden="1">
+            <xdr:cNvPr id="1108" name="Control 84" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1110"/>
+                  <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5974,13 +6665,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1111" name="Control 87" hidden="1">
+            <xdr:cNvPr id="1109" name="Control 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1111"/>
+                  <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6024,13 +6715,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1112" name="Control 88" hidden="1">
+            <xdr:cNvPr id="1110" name="Control 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1112"/>
+                  <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6074,13 +6765,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1113" name="Control 89" hidden="1">
+            <xdr:cNvPr id="1111" name="Control 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1113"/>
+                  <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6120,6 +6811,106 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>55</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Control 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Control 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6458,10 +7249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6513,11 +7304,11 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -6527,10 +7318,10 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6543,11 +7334,11 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -6604,50 +7395,36 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12">
-        <v>19000387</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="13">
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20">
+        <v>1900389</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20">
         <v>0.5</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="12">
-        <v>19000395</v>
+        <v>19000387</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>25</v>
@@ -6661,8 +7438,8 @@
       <c r="H12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>27</v>
+      <c r="I12" s="13">
+        <v>2</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>27</v>
@@ -6670,16 +7447,16 @@
     </row>
     <row r="13" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="12">
-        <v>19000397</v>
+        <v>19000395</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>25</v>
@@ -6702,19 +7479,19 @@
     </row>
     <row r="14" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12">
-        <v>19000403</v>
+        <v>19000397</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>26</v>
@@ -6725,8 +7502,8 @@
       <c r="H14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="13">
-        <v>0.5</v>
+      <c r="I14" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>27</v>
@@ -6734,19 +7511,19 @@
     </row>
     <row r="15" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12">
-        <v>19000404</v>
+        <v>19000403</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>26</v>
@@ -6757,8 +7534,8 @@
       <c r="H15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>27</v>
+      <c r="I15" s="13">
+        <v>1.5</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>27</v>
@@ -6766,16 +7543,16 @@
     </row>
     <row r="16" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="12">
-        <v>19000406</v>
+        <v>19000404</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>25</v>
@@ -6798,16 +7575,16 @@
     </row>
     <row r="17" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="12">
-        <v>19000408</v>
+        <v>19000406</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>25</v>
@@ -6830,16 +7607,16 @@
     </row>
     <row r="18" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="12">
-        <v>19000409</v>
+        <v>19000408</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>25</v>
@@ -6853,8 +7630,8 @@
       <c r="H18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>27</v>
+      <c r="I18" s="13">
+        <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>27</v>
@@ -6862,16 +7639,16 @@
     </row>
     <row r="19" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="12">
-        <v>19000410</v>
+        <v>19000409</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>25</v>
@@ -6894,16 +7671,16 @@
     </row>
     <row r="20" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" s="12">
-        <v>19000413</v>
+        <v>19000410</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>25</v>
@@ -6926,16 +7703,16 @@
     </row>
     <row r="21" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="12">
-        <v>19000336</v>
+        <v>19000413</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>25</v>
@@ -6958,16 +7735,16 @@
     </row>
     <row r="22" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="12">
-        <v>19000420</v>
+        <v>19000336</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>25</v>
@@ -6982,7 +7759,7 @@
         <v>27</v>
       </c>
       <c r="I22" s="13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>27</v>
@@ -6990,16 +7767,16 @@
     </row>
     <row r="23" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B23" s="12">
-        <v>19000424</v>
+        <v>19000420</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>25</v>
@@ -7013,8 +7790,8 @@
       <c r="H23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>27</v>
+      <c r="I23" s="13">
+        <v>1.5</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>27</v>
@@ -7022,19 +7799,19 @@
     </row>
     <row r="24" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12">
-        <v>19000427</v>
+        <v>19000424</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>26</v>
@@ -7054,19 +7831,19 @@
     </row>
     <row r="25" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12">
-        <v>19000431</v>
+        <v>19000427</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>26</v>
@@ -7086,16 +7863,16 @@
     </row>
     <row r="26" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="12">
-        <v>19000436</v>
+        <v>19000431</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>25</v>
@@ -7118,19 +7895,19 @@
     </row>
     <row r="27" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B27" s="12">
-        <v>19000438</v>
+        <v>19000436</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>26</v>
@@ -7150,16 +7927,16 @@
     </row>
     <row r="28" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" s="12">
-        <v>19000439</v>
+        <v>19000438</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>37</v>
@@ -7182,16 +7959,16 @@
     </row>
     <row r="29" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" s="12">
-        <v>19000440</v>
+        <v>19000439</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>37</v>
@@ -7214,22 +7991,22 @@
     </row>
     <row r="30" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" s="12">
-        <v>18001050</v>
+        <v>19000440</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>27</v>
@@ -7246,22 +8023,22 @@
     </row>
     <row r="31" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" s="12">
-        <v>19000442</v>
+        <v>18001050</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>27</v>
@@ -7278,19 +8055,19 @@
     </row>
     <row r="32" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B32" s="12">
-        <v>19000447</v>
+        <v>19000442</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>26</v>
@@ -7310,16 +8087,16 @@
     </row>
     <row r="33" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" s="12">
-        <v>19000451</v>
+        <v>19000447</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>25</v>
@@ -7342,16 +8119,16 @@
     </row>
     <row r="34" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="12">
-        <v>19000453</v>
+        <v>19000451</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>25</v>
@@ -7374,16 +8151,16 @@
     </row>
     <row r="35" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B35" s="12">
-        <v>19000459</v>
+        <v>19000453</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>25</v>
@@ -7406,16 +8183,16 @@
     </row>
     <row r="36" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="12">
-        <v>19000461</v>
+        <v>19000459</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>25</v>
@@ -7438,16 +8215,16 @@
     </row>
     <row r="37" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B37" s="12">
-        <v>19000463</v>
+        <v>19000461</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>25</v>
@@ -7470,19 +8247,19 @@
     </row>
     <row r="38" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="12">
-        <v>19000464</v>
+        <v>19000463</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>26</v>
@@ -7493,28 +8270,26 @@
       <c r="H38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B39" s="12">
-        <v>19000465</v>
+        <v>19000464</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>26</v>
@@ -7534,16 +8309,16 @@
     </row>
     <row r="40" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B40" s="12">
-        <v>19000466</v>
+        <v>19000465</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>25</v>
@@ -7566,16 +8341,16 @@
     </row>
     <row r="41" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B41" s="12">
-        <v>19000467</v>
+        <v>19000466</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>25</v>
@@ -7598,16 +8373,16 @@
     </row>
     <row r="42" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B42" s="12">
-        <v>19000472</v>
+        <v>19000467</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>25</v>
@@ -7630,16 +8405,16 @@
     </row>
     <row r="43" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B43" s="12">
-        <v>19000474</v>
+        <v>19000472</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>25</v>
@@ -7662,16 +8437,16 @@
     </row>
     <row r="44" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B44" s="12">
-        <v>19000476</v>
+        <v>19000474</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>25</v>
@@ -7694,16 +8469,16 @@
     </row>
     <row r="45" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B45" s="12">
-        <v>19000487</v>
+        <v>19000476</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>25</v>
@@ -7726,19 +8501,19 @@
     </row>
     <row r="46" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="12">
-        <v>19000488</v>
+        <v>19000487</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>26</v>
@@ -7749,8 +8524,8 @@
       <c r="H46" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>27</v>
+      <c r="I46" s="13">
+        <v>-1</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>27</v>
@@ -7758,16 +8533,16 @@
     </row>
     <row r="47" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B47" s="12">
-        <v>19000490</v>
+        <v>19000488</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>37</v>
@@ -7790,16 +8565,16 @@
     </row>
     <row r="48" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="12">
-        <v>19000491</v>
+        <v>19000490</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>37</v>
@@ -7822,16 +8597,16 @@
     </row>
     <row r="49" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B49" s="12">
-        <v>19000493</v>
+        <v>19000491</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>37</v>
@@ -7854,22 +8629,22 @@
     </row>
     <row r="50" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B50" s="12">
-        <v>19000377</v>
+        <v>19000493</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>27</v>
@@ -7886,22 +8661,22 @@
     </row>
     <row r="51" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B51" s="12">
-        <v>19000497</v>
+        <v>19000377</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>27</v>
@@ -7918,16 +8693,16 @@
     </row>
     <row r="52" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B52" s="12">
-        <v>19000498</v>
+        <v>19000497</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>25</v>
@@ -7950,16 +8725,16 @@
     </row>
     <row r="53" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B53" s="12">
-        <v>19000499</v>
+        <v>19000498</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>25</v>
@@ -7982,16 +8757,16 @@
     </row>
     <row r="54" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B54" s="12">
-        <v>19000482</v>
+        <v>19000499</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>25</v>
@@ -8005,8 +8780,8 @@
       <c r="H54" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="13">
-        <v>1</v>
+      <c r="I54" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="J54" s="13" t="s">
         <v>27</v>
@@ -8014,16 +8789,16 @@
     </row>
     <row r="55" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B55" s="12">
-        <v>19000485</v>
+        <v>19000482</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>25</v>
@@ -8037,90 +8812,115 @@
       <c r="H55" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>27</v>
+      <c r="I55" s="13">
+        <v>2.5</v>
       </c>
       <c r="J55" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="26" t="s">
+    <row r="56" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="12">
+        <v>19000485</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26"/>
+      <c r="B57" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+    <row r="58" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
+    <row r="59" spans="1:10" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -8139,36 +8939,43 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:F58"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8177,8 +8984,2183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId4" name="Control 90">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId10" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId12" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId12" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId14" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId14" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId16" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId16" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId18" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId20" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId20" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId22" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId22" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId24" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId24" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId26" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId26" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId28" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId28" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId30" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId30" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId32" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId32" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId34" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId34" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId36" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId36" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId38" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId38" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId40" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId40" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId42" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId42" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId44" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId44" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId46" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId46" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId48" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId48" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId50" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId51">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId50" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId52" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId52" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId54" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId55">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId54" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId56" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId57">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId56" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId58" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId59">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId58" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId60" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId61">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId60" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId62" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId63">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId62" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId64" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId65">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId64" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId66" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId67">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId66" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId68" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId69">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId68" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId70" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId71">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId70" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId72" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId73">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId72" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId74" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId75">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId74" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId76" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId77">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId76" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId78" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId79">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId78" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId80" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId81">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId80" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId82" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId83">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId82" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId84" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId85">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId84" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId86" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId87">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId86" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId88" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId89">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId88" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId90" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId91">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId90" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId92" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId93">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId92" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId94" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId95">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId94" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId96" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId97">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId96" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId98" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId99">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId98" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId100" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId101">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId100" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId102" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId103">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId102" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId104" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId105">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId104" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId106" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId107">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId106" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId108" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId109">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId108" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1078" r:id="rId110" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId111">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1078" r:id="rId110" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1079" r:id="rId112" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId113">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1079" r:id="rId112" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1080" r:id="rId114" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId115">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1080" r:id="rId114" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1081" r:id="rId116" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId117">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1081" r:id="rId116" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1082" r:id="rId118" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId119">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1082" r:id="rId118" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1083" r:id="rId120" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId121">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1083" r:id="rId120" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1084" r:id="rId122" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId123">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1084" r:id="rId122" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1085" r:id="rId124" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId125">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1085" r:id="rId124" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId126" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId127">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId126" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1087" r:id="rId128" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId129">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1087" r:id="rId128" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1088" r:id="rId130" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId131">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId130" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId132" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId133">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId132" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1090" r:id="rId134" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId135">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1090" r:id="rId134" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1091" r:id="rId136" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId137">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId136" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1092" r:id="rId138" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId139">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1092" r:id="rId138" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId140" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId141">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1093" r:id="rId140" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1094" r:id="rId142" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId143">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1094" r:id="rId142" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId144" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId145">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId144" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId146" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId147">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId146" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId148" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId149">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId148" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId150" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId151">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId150" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId152" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId153">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId152" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId154" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId155">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId154" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId156" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId157">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId156" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId158" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId159">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId158" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId160" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId161">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId160" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId162" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId163">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId162" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1105" r:id="rId164" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId165">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1105" r:id="rId164" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId166" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId167">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId166" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1107" r:id="rId168" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId169">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1107" r:id="rId168" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1108" r:id="rId170" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId171">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1108" r:id="rId170" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1109" r:id="rId172" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId173">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1109" r:id="rId172" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId174" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId175">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId174" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId176" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId177">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1111" r:id="rId176" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1112" r:id="rId178" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId179">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
@@ -8197,24 +11179,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1114" r:id="rId4" name="Control 90"/>
+        <control shapeId="1112" r:id="rId178" name="Control 88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId6" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="1113" r:id="rId180" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId181">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>55</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>55</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -8222,24 +11204,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1113" r:id="rId6" name="Control 89"/>
+        <control shapeId="1113" r:id="rId180" name="Control 89"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId8" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId9">
+        <control shapeId="1114" r:id="rId182" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId183">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>55</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -8247,2184 +11229,1098 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1112" r:id="rId8" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId10" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1111" r:id="rId10" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId12" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1110" r:id="rId12" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId14" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1109" r:id="rId14" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId16" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1108" r:id="rId16" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId18" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1107" r:id="rId18" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId20" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1106" r:id="rId20" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId22" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1105" r:id="rId22" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId24" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1104" r:id="rId24" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId26" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId26" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId28" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId28" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId30" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId30" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId32" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId32" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId34" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId34" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId36" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId36" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId38" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId38" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId40" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1096" r:id="rId40" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId42" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1095" r:id="rId42" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId44" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId45">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1094" r:id="rId44" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId46" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1093" r:id="rId46" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId48" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1092" r:id="rId48" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId50" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId51">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1091" r:id="rId50" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId52" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId53">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1090" r:id="rId52" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId54" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId55">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1089" r:id="rId54" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId56" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId57">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1088" r:id="rId56" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId58" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId59">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1087" r:id="rId58" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId60" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId61">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1086" r:id="rId60" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId62" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId63">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1085" r:id="rId62" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId64" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId65">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1084" r:id="rId64" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId66" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId67">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1083" r:id="rId66" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId68" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId69">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1082" r:id="rId68" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId70" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId71">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1081" r:id="rId70" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId72" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId73">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1080" r:id="rId72" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId74" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId75">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1079" r:id="rId74" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId76" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId77">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1078" r:id="rId76" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId78" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId79">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1077" r:id="rId78" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId80" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId81">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1076" r:id="rId80" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId82" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId83">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId82" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId84" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId85">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId84" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId86" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId87">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId86" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId88" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId89">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId88" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId90" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId91">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId90" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId92" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId93">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId92" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId94" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId95">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId94" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId96" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId97">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId96" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId98" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId99">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId98" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId100" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId101">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId100" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId102" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId103">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId102" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId104" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId105">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId104" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId106" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId107">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId106" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId108" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId109">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId108" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId110" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId111">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId110" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId112" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId113">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId112" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId114" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId115">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId114" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId116" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId117">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId116" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId118" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId119">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId118" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId120" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId121">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId120" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId122" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId123">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId122" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId124" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId125">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId124" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId126" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId127">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId126" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId128" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId129">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId128" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId130" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId131">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId130" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId132" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId133">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId132" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId134" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId135">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId134" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId136" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId137">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId136" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId138" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId139">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId138" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId140" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId141">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId140" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId142" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId143">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId142" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId144" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId145">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId144" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId146" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId147">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId146" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId148" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId149">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId148" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId150" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId151">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId150" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId152" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId153">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId152" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId154" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId155">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId154" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId156" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId157">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId156" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId158" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId159">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId158" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId160" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId161">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId160" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId162" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId163">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId162" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId164" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId165">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId164" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId166" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId167">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId166" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId168" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId169">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId168" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId170" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId171">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId170" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId172" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId173">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId172" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId174" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId175">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId174" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId176" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId177">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId176" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId178" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId179">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId178" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId180" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId181">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId180" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId182" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId183">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId182" name="Control 1"/>
+        <control shapeId="1114" r:id="rId182" name="Control 90"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EE84E6-781C-4CF8-93E4-300827A8BD5D}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>19000387</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40">
+        <v>19000389</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40">
+        <v>19000395</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40">
+        <v>19000397</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40">
+        <v>19000403</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40">
+        <v>19000404</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40">
+        <v>19000406</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40">
+        <v>19000408</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40">
+        <v>19000409</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40">
+        <v>19000410</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40">
+        <v>19000413</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40">
+        <v>19000336</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40">
+        <v>19000415</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40">
+        <v>19000420</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40">
+        <v>19000424</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40">
+        <v>19000427</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40">
+        <v>19000431</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40">
+        <v>19000436</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40">
+        <v>19000438</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40">
+        <v>19000439</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="40">
+        <v>19000440</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="40">
+        <v>19000441</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40">
+        <v>19000447</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="45">
+        <v>24</v>
+      </c>
+      <c r="B25" s="40">
+        <v>19000451</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="45">
+        <v>25</v>
+      </c>
+      <c r="B26" s="40">
+        <v>19000453</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40">
+        <v>19000455</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="45">
+        <v>27</v>
+      </c>
+      <c r="B28" s="40">
+        <v>19000459</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
+        <v>28</v>
+      </c>
+      <c r="B29" s="40">
+        <v>19000461</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="40">
+        <v>19000463</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="45">
+        <v>30</v>
+      </c>
+      <c r="B31" s="40">
+        <v>19000465</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>31</v>
+      </c>
+      <c r="B32" s="40">
+        <v>19000467</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
+        <v>32</v>
+      </c>
+      <c r="B33" s="40">
+        <v>19000472</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40">
+        <v>19000474</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="45">
+        <v>34</v>
+      </c>
+      <c r="B35" s="40">
+        <v>19000476</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="46">
+        <v>35</v>
+      </c>
+      <c r="B36" s="47">
+        <v>19000487</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="52">
+        <v>2</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+    </row>
+    <row r="38" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="45">
+        <v>36</v>
+      </c>
+      <c r="B39" s="40">
+        <v>19000488</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="45">
+        <v>37</v>
+      </c>
+      <c r="B40" s="40">
+        <v>19000490</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="45">
+        <v>38</v>
+      </c>
+      <c r="B41" s="40">
+        <v>19000491</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="45">
+        <v>39</v>
+      </c>
+      <c r="B42" s="40">
+        <v>19000497</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="45">
+        <v>40</v>
+      </c>
+      <c r="B43" s="40">
+        <v>19000498</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="45">
+        <v>41</v>
+      </c>
+      <c r="B44" s="40">
+        <v>19000499</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="40">
+        <v>19000482</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="44"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="47">
+        <v>19000485</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MAT2034_MAT2404_GTS_HK1_Python/MAT2034 CLCMTKHTT 2.xlsx
+++ b/MAT2034_MAT2404_GTS_HK1_Python/MAT2034 CLCMTKHTT 2.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Teaching-VNU\MAT2034_MAT2404_GTS_HK1_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87568902-82B0-499F-9B04-BCA0AD028DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719259AE-9AD7-4EAB-A257-C8CBC0904F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAT2034 CLCMTKHTT 2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="264">
   <si>
     <t>ĐẠI HỌC QUỐC GIA HÀ NỘI</t>
   </si>
@@ -1122,6 +1131,9 @@
   </si>
   <si>
     <t>12/10/2001</t>
+  </si>
+  <si>
+    <t>########</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1829,6 +1841,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1874,7 +1899,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1932,47 +1957,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1995,25 +1984,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="32" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2025,8 +2002,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7251,8 +7297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7263,7 +7309,7 @@
     <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="38" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
@@ -7285,7 +7331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -7304,98 +7350,98 @@
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="46" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="11" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="20">
         <v>1900389</v>
@@ -7406,14 +7452,19 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="42">
+        <v>7</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20">
         <v>0.5</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="20">
+        <f>G11+I11</f>
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
@@ -7432,20 +7483,19 @@
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G12" s="42">
+        <v>7</v>
+      </c>
+      <c r="H12" s="22"/>
       <c r="I12" s="13">
         <v>2</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>27</v>
+      <c r="J12" s="43">
+        <f t="shared" ref="J12:J56" si="0">G12+I12</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -7464,20 +7514,19 @@
       <c r="F13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G13" s="42">
+        <v>6</v>
+      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>27</v>
+      <c r="J13" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7496,20 +7545,19 @@
       <c r="F14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G14" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>27</v>
+      <c r="J14" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>34</v>
       </c>
@@ -7528,20 +7576,19 @@
       <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G15" s="42">
+        <v>7</v>
+      </c>
+      <c r="H15" s="22"/>
       <c r="I15" s="13">
         <v>1.5</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>27</v>
+      <c r="J15" s="43">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
@@ -7560,20 +7607,19 @@
       <c r="F16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>27</v>
+      <c r="G16" s="42">
+        <v>7</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="43">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
@@ -7592,20 +7638,19 @@
       <c r="F17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G17" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="22"/>
       <c r="I17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>27</v>
+      <c r="J17" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
@@ -7624,20 +7669,19 @@
       <c r="F18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G18" s="42">
+        <v>7</v>
+      </c>
+      <c r="H18" s="22"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>27</v>
+      <c r="J18" s="43">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -7656,20 +7700,19 @@
       <c r="F19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G19" s="42">
+        <v>6</v>
+      </c>
+      <c r="H19" s="22"/>
       <c r="I19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
+      <c r="J19" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
@@ -7688,20 +7731,19 @@
       <c r="F20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G20" s="42">
+        <v>6</v>
+      </c>
+      <c r="H20" s="22"/>
       <c r="I20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>27</v>
+      <c r="J20" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -7720,20 +7762,19 @@
       <c r="F21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G21" s="42">
+        <v>8</v>
+      </c>
+      <c r="H21" s="22"/>
       <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>27</v>
+      <c r="J21" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>55</v>
       </c>
@@ -7752,20 +7793,19 @@
       <c r="F22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G22" s="42">
+        <v>4</v>
+      </c>
+      <c r="H22" s="22"/>
       <c r="I22" s="13">
         <v>-1</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>27</v>
+      <c r="J22" s="43">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
@@ -7784,20 +7824,19 @@
       <c r="F23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G23" s="42">
+        <v>7</v>
+      </c>
+      <c r="H23" s="22"/>
       <c r="I23" s="13">
         <v>1.5</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>27</v>
+      <c r="J23" s="43">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -7816,20 +7855,19 @@
       <c r="F24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G24" s="42">
+        <v>4</v>
+      </c>
+      <c r="H24" s="22"/>
       <c r="I24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>27</v>
+      <c r="J24" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>64</v>
       </c>
@@ -7848,20 +7886,19 @@
       <c r="F25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G25" s="42">
+        <v>5</v>
+      </c>
+      <c r="H25" s="22"/>
       <c r="I25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>27</v>
+      <c r="J25" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
@@ -7880,20 +7917,19 @@
       <c r="F26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>27</v>
+      <c r="G26" s="42">
+        <v>7</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="43">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>70</v>
       </c>
@@ -7912,20 +7948,19 @@
       <c r="F27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G27" s="42">
+        <v>7</v>
+      </c>
+      <c r="H27" s="22"/>
       <c r="I27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>27</v>
+      <c r="J27" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
@@ -7944,20 +7979,19 @@
       <c r="F28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>27</v>
+      <c r="G28" s="42">
+        <v>7</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="43">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>76</v>
       </c>
@@ -7976,20 +8010,19 @@
       <c r="F29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G29" s="42">
+        <v>5</v>
+      </c>
+      <c r="H29" s="22"/>
       <c r="I29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>27</v>
+      <c r="J29" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>79</v>
       </c>
@@ -8008,20 +8041,19 @@
       <c r="F30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G30" s="42">
+        <v>7</v>
+      </c>
+      <c r="H30" s="22"/>
       <c r="I30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>27</v>
+      <c r="J30" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>82</v>
       </c>
@@ -8040,20 +8072,19 @@
       <c r="F31" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G31" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H31" s="22"/>
       <c r="I31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>27</v>
+      <c r="J31" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>86</v>
       </c>
@@ -8072,20 +8103,19 @@
       <c r="F32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G32" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H32" s="22"/>
       <c r="I32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="13" t="s">
-        <v>27</v>
+      <c r="J32" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>89</v>
       </c>
@@ -8104,20 +8134,19 @@
       <c r="F33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G33" s="42">
+        <v>5</v>
+      </c>
+      <c r="H33" s="22"/>
       <c r="I33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>27</v>
+      <c r="J33" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>92</v>
       </c>
@@ -8136,20 +8165,19 @@
       <c r="F34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G34" s="42">
+        <v>6</v>
+      </c>
+      <c r="H34" s="22"/>
       <c r="I34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>27</v>
+      <c r="J34" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>95</v>
       </c>
@@ -8168,20 +8196,19 @@
       <c r="F35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G35" s="42">
+        <v>6</v>
+      </c>
+      <c r="H35" s="22"/>
       <c r="I35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>27</v>
+      <c r="J35" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>98</v>
       </c>
@@ -8200,20 +8227,19 @@
       <c r="F36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G36" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="22"/>
       <c r="I36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>27</v>
+      <c r="J36" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>101</v>
       </c>
@@ -8232,20 +8258,19 @@
       <c r="F37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G37" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="H37" s="22"/>
       <c r="I37" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>27</v>
+      <c r="J37" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>104</v>
       </c>
@@ -8264,18 +8289,17 @@
       <c r="F38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" s="42">
+        <v>7</v>
+      </c>
+      <c r="H38" s="22"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13" t="s">
-        <v>27</v>
+      <c r="J38" s="43">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>107</v>
       </c>
@@ -8294,20 +8318,19 @@
       <c r="F39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G39" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="22"/>
       <c r="I39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>27</v>
+      <c r="J39" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
@@ -8326,20 +8349,19 @@
       <c r="F40" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G40" s="42">
+        <v>7</v>
+      </c>
+      <c r="H40" s="22"/>
       <c r="I40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>27</v>
+      <c r="J40" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>113</v>
       </c>
@@ -8358,20 +8380,19 @@
       <c r="F41" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G41" s="42">
+        <v>3</v>
+      </c>
+      <c r="H41" s="22"/>
       <c r="I41" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>27</v>
+      <c r="J41" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>116</v>
       </c>
@@ -8390,20 +8411,19 @@
       <c r="F42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G42" s="42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="22"/>
       <c r="I42" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>27</v>
+      <c r="J42" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>119</v>
       </c>
@@ -8422,20 +8442,19 @@
       <c r="F43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G43" s="42">
+        <v>4</v>
+      </c>
+      <c r="H43" s="22"/>
       <c r="I43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>27</v>
+      <c r="J43" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>122</v>
       </c>
@@ -8454,20 +8473,19 @@
       <c r="F44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G44" s="42">
+        <v>7</v>
+      </c>
+      <c r="H44" s="22"/>
       <c r="I44" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="13" t="s">
-        <v>27</v>
+      <c r="J44" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>125</v>
       </c>
@@ -8486,20 +8504,19 @@
       <c r="F45" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G45" s="42">
+        <v>5</v>
+      </c>
+      <c r="H45" s="22"/>
       <c r="I45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="13" t="s">
-        <v>27</v>
+      <c r="J45" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>128</v>
       </c>
@@ -8518,20 +8535,19 @@
       <c r="F46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G46" s="42">
+        <v>5</v>
+      </c>
+      <c r="H46" s="22"/>
       <c r="I46" s="13">
         <v>-1</v>
       </c>
-      <c r="J46" s="13" t="s">
-        <v>27</v>
+      <c r="J46" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>130</v>
       </c>
@@ -8550,20 +8566,19 @@
       <c r="F47" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G47" s="42">
+        <v>5</v>
+      </c>
+      <c r="H47" s="22"/>
       <c r="I47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="13" t="s">
-        <v>27</v>
+      <c r="J47" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>133</v>
       </c>
@@ -8582,20 +8597,19 @@
       <c r="F48" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G48" s="42">
+        <v>5</v>
+      </c>
+      <c r="H48" s="22"/>
       <c r="I48" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>27</v>
+      <c r="J48" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>136</v>
       </c>
@@ -8614,20 +8628,19 @@
       <c r="F49" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G49" s="42">
+        <v>5</v>
+      </c>
+      <c r="H49" s="22"/>
       <c r="I49" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="13" t="s">
-        <v>27</v>
+      <c r="J49" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>139</v>
       </c>
@@ -8646,20 +8659,19 @@
       <c r="F50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G50" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H50" s="22"/>
       <c r="I50" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="13" t="s">
-        <v>27</v>
+      <c r="J50" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>142</v>
       </c>
@@ -8678,20 +8690,19 @@
       <c r="F51" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G51" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H51" s="22"/>
       <c r="I51" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="13" t="s">
-        <v>27</v>
+      <c r="J51" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>146</v>
       </c>
@@ -8710,20 +8721,19 @@
       <c r="F52" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G52" s="42">
+        <v>5</v>
+      </c>
+      <c r="H52" s="22"/>
       <c r="I52" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="13" t="s">
-        <v>27</v>
+      <c r="J52" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>149</v>
       </c>
@@ -8742,20 +8752,19 @@
       <c r="F53" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G53" s="42">
+        <v>2</v>
+      </c>
+      <c r="H53" s="22"/>
       <c r="I53" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>27</v>
+      <c r="J53" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>152</v>
       </c>
@@ -8774,20 +8783,19 @@
       <c r="F54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G54" s="42">
+        <v>6.5</v>
+      </c>
+      <c r="H54" s="22"/>
       <c r="I54" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>27</v>
+      <c r="J54" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>155</v>
       </c>
@@ -8806,20 +8814,19 @@
       <c r="F55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G55" s="42">
+        <v>7</v>
+      </c>
+      <c r="H55" s="22"/>
       <c r="I55" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="J55" s="43">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>158</v>
       </c>
@@ -8838,84 +8845,83 @@
       <c r="F56" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="G56" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="H56" s="22"/>
       <c r="I56" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>27</v>
+      <c r="J56" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="16"/>
       <c r="E57" s="14"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="39"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19"/>
       <c r="E58" s="15"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="39"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="8"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="39"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="53"/>
+      <c r="B60" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25" t="s">
+      <c r="C60" s="54"/>
+      <c r="D60" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
     </row>
     <row r="61" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25" t="s">
+      <c r="C61" s="55"/>
+      <c r="D61" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
@@ -8956,18 +8962,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
@@ -8976,6 +8970,18 @@
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8984,8 +8990,2233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1114" r:id="rId4" name="Control 90">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1114" r:id="rId4" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId6" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId6" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1112" r:id="rId8" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1112" r:id="rId8" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId10" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1111" r:id="rId10" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId12" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId12" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1109" r:id="rId14" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1109" r:id="rId14" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1108" r:id="rId16" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1108" r:id="rId16" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1107" r:id="rId18" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1107" r:id="rId18" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId20" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId20" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1105" r:id="rId22" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1105" r:id="rId22" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId24" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId24" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId26" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId26" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId28" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId28" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId30" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId30" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId32" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId32" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId34" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId34" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId36" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId36" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId38" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId38" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId40" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId40" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId42" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId42" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1094" r:id="rId44" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1094" r:id="rId44" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId46" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1093" r:id="rId46" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1092" r:id="rId48" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1092" r:id="rId48" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1091" r:id="rId50" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId51">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId50" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1090" r:id="rId52" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1090" r:id="rId52" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId54" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId55">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId54" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1088" r:id="rId56" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId57">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId56" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1087" r:id="rId58" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId59">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1087" r:id="rId58" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId60" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId61">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId60" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1085" r:id="rId62" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId63">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1085" r:id="rId62" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1084" r:id="rId64" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId65">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1084" r:id="rId64" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1083" r:id="rId66" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId67">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1083" r:id="rId66" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1082" r:id="rId68" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId69">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1082" r:id="rId68" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1081" r:id="rId70" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId71">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1081" r:id="rId70" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1080" r:id="rId72" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId73">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1080" r:id="rId72" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1079" r:id="rId74" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId75">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1079" r:id="rId74" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1078" r:id="rId76" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId77">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1078" r:id="rId76" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId78" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId79">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId78" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId80" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId81">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId80" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId82" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId83">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId82" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId84" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId85">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId84" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId86" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId87">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId86" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId88" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId89">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId88" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId90" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId91">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId90" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId92" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId93">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId92" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId94" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId95">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId94" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId96" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId97">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId96" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId98" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId99">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId98" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId100" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId101">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId100" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId102" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId103">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId102" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId104" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId105">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId104" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId106" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId107">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId106" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId108" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId109">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId108" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId110" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId111">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId110" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId112" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId113">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId112" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId114" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId115">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId114" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId116" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId117">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId116" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId118" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId119">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId118" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId120" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId121">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId120" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId122" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId123">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId122" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId124" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId125">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId124" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId126" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId127">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId126" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId128" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId129">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId128" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId130" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId131">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId130" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId132" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId133">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId132" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId134" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId135">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId134" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId136" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId137">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId136" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId138" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId139">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId138" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId140" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId141">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId140" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId142" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId143">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId142" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId144" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId145">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId144" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId146" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId147">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId146" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId148" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId149">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId148" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId150" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId151">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId150" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId152" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId153">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId152" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId154" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId155">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId154" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId156" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId157">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId156" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId158" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId159">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId158" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId160" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId161">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId160" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId162" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId163">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId162" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId164" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId165">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId164" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId166" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId167">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId166" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId168" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId169">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId168" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId170" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId171">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId170" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId172" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId173">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId172" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId174" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId175">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId174" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId176" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId177">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId176" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId178" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId179">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId178" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId180" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId181">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId180" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId182" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId183">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -9004,2232 +11235,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId12" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId12" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId14" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId14" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId16" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId16" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId20" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId20" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId22" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId22" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId24" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId24" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId26" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId26" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId28" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId28" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId30" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId30" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId32" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId32" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId34" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId34" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId36" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId36" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId38" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId38" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId40" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId40" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId42" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId42" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId44" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId45">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId44" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId46" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId46" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId48" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId48" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId50" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId51">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId50" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId52" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId53">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId52" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId54" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId55">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId54" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId56" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId57">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId56" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId58" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId59">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId58" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId60" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId61">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId60" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId62" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId63">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId62" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId64" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId65">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId64" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId66" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId67">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId66" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId68" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId69">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId68" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId70" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId71">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId70" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId72" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId73">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId72" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId74" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId75">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId74" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId76" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId77">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId76" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId78" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId79">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId78" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId80" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId81">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId80" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId82" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId83">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId82" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId84" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId85">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId84" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId86" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId87">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId86" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId88" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId89">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId88" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId90" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId91">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId90" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId92" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId93">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId92" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId94" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId95">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId94" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId96" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId97">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId96" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId98" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId99">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId98" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId100" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId101">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId100" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId102" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId103">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId102" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId104" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId105">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId104" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId106" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId107">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1076" r:id="rId106" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId108" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId109">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1077" r:id="rId108" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId110" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId111">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1078" r:id="rId110" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId112" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId113">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1079" r:id="rId112" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId114" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId115">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1080" r:id="rId114" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId116" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId117">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1081" r:id="rId116" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId118" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId119">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1082" r:id="rId118" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId120" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId121">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1083" r:id="rId120" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId122" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId123">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1084" r:id="rId122" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId124" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId125">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1085" r:id="rId124" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId126" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId127">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1086" r:id="rId126" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId128" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId129">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1087" r:id="rId128" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId130" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId131">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1088" r:id="rId130" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId132" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId133">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1089" r:id="rId132" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId134" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId135">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1090" r:id="rId134" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId136" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId137">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1091" r:id="rId136" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId138" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId139">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1092" r:id="rId138" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId140" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId141">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1093" r:id="rId140" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId142" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId143">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1094" r:id="rId142" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId144" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId145">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1095" r:id="rId144" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId146" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId147">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1096" r:id="rId146" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId148" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId149">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId148" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId150" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId151">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId150" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId152" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId153">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId152" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId154" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId155">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId154" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId156" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId157">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId156" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId158" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId159">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId158" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId160" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId161">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId160" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId162" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId163">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1104" r:id="rId162" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId164" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId165">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1105" r:id="rId164" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId166" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId167">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1106" r:id="rId166" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId168" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId169">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1107" r:id="rId168" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId170" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId171">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1108" r:id="rId170" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId172" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId173">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1109" r:id="rId172" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId174" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId175">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1110" r:id="rId174" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId176" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId177">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1111" r:id="rId176" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId178" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId179">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1112" r:id="rId178" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId180" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId181">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1113" r:id="rId180" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId182" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId183">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1114" r:id="rId182" name="Control 90"/>
+        <control shapeId="1025" r:id="rId182" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11240,1040 +11246,1084 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EE84E6-781C-4CF8-93E4-300827A8BD5D}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="38"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="26" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="28">
         <v>19000387</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="28">
         <v>19000389</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="28">
         <v>19000395</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="28">
         <v>19000397</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="28">
         <v>19000403</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="28">
         <v>19000404</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="28">
         <v>19000406</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="28">
         <v>19000408</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="28">
         <v>19000409</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="28">
         <v>19000410</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="28">
         <v>19000413</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="28">
         <v>19000336</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="28">
         <v>19000415</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="28">
         <v>19000420</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="28">
         <v>19000424</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="28">
         <v>19000427</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="28">
         <v>19000431</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="28">
         <v>19000436</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="28">
         <v>19000438</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="28">
         <v>19000439</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="28">
         <v>19000440</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="28">
         <v>19000441</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="40">
+        <v>7</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="28">
         <v>19000447</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="27">
         <v>24</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="28">
         <v>19000451</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="45">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="28">
         <v>19000453</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="45">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="28">
         <v>19000455</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="45">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="28">
         <v>19000459</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="28">
         <v>19000461</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="45">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="28">
         <v>19000463</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="45">
+      <c r="A31" s="27">
         <v>30</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="28">
         <v>19000465</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="45">
+      <c r="A32" s="27">
         <v>31</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="28">
         <v>19000467</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
+      <c r="A33" s="27">
         <v>32</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="28">
         <v>19000472</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="44"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+      <c r="A34" s="27">
         <v>33</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="28">
         <v>19000474</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45">
+      <c r="A35" s="27">
         <v>34</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="28">
         <v>19000476</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="46">
+      <c r="A36" s="37">
         <v>35</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="32">
         <v>19000487</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="52">
+      <c r="A37" s="58">
         <v>2</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="59"/>
+      <c r="G38" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="26" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="45">
+      <c r="A39" s="27">
         <v>36</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="28">
         <v>19000488</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="45">
+      <c r="A40" s="27">
         <v>37</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="28">
         <v>19000490</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="45">
+      <c r="A41" s="27">
         <v>38</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="28">
         <v>19000491</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+      <c r="A42" s="27">
         <v>39</v>
       </c>
-      <c r="B42" s="40">
+      <c r="B42" s="28">
         <v>19000497</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="45">
+      <c r="A43" s="27">
         <v>40</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="28">
         <v>19000498</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="45">
+      <c r="A44" s="27">
         <v>41</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="28">
         <v>19000499</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="45">
+      <c r="A45" s="27">
         <v>42</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="28">
         <v>19000482</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="44"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="46">
+      <c r="A46" s="37">
         <v>43</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="32">
         <v>19000485</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
@@ -12284,42 +12334,6 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
